--- a/DateAutomation/bin/Debug/AutomatedDates.xlsx
+++ b/DateAutomation/bin/Debug/AutomatedDates.xlsx
@@ -14,30 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>7/7/2025 - 7/13/2025</t>
-  </si>
-  <si>
-    <t>7/14/2025 - 7/20/2025</t>
-  </si>
-  <si>
-    <t>7/21/2025 - 7/27/2025</t>
-  </si>
-  <si>
-    <t>7/28/2025 - 8/3/2025</t>
-  </si>
-  <si>
-    <t>8/4/2025 - 8/10/2025</t>
-  </si>
-  <si>
-    <t>8/11/2025 - 8/17/2025</t>
-  </si>
-  <si>
-    <t>8/18/2025 - 8/24/2025</t>
+    <t>1/1/1 - 1/7/1</t>
   </si>
   <si>
     <t>Produced with ByteScout Spreadsheet SDK v4.7.1.2054 [TRIAL]</t>
@@ -104,36 +86,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -150,77 +102,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
